--- a/speed.xlsx
+++ b/speed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,17 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +57,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -351,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -414,12 +428,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12815</v>
+      </c>
+      <c r="B2">
+        <v>1783</v>
+      </c>
+      <c r="C2">
+        <v>12855</v>
+      </c>
+      <c r="D2">
+        <v>1709</v>
+      </c>
+      <c r="E2">
+        <f>+A2-C2</f>
+        <v>-40</v>
+      </c>
+      <c r="F2">
+        <f>+B2-D2</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12694</v>
+      </c>
+      <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>12728</v>
+      </c>
+      <c r="D3">
+        <v>1945</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">+A3-C3</f>
+        <v>-34</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="1">+B3-D3</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12545</v>
+      </c>
+      <c r="B4">
+        <v>2287</v>
+      </c>
+      <c r="C4">
+        <v>12573</v>
+      </c>
+      <c r="D4">
+        <v>2233</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12396</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/speed.xlsx
+++ b/speed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -363,62 +363,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>+A3/A2</f>
+        <v>1.84</v>
+      </c>
+      <c r="C2">
+        <f>+B3/B2</f>
+        <v>0.75614366729678628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>184</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:C10" si="0">+A4/A3</f>
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.892822265625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.2421875</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.93667180886832002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.1635220125786163</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.96166544923301678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.1189189189189188</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.97359331606338539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.0893719806763285</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.98309251183622515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.0709534368070954</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.98594447230688109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.0559006211180124</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.98976931949250291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>500</v>
+        <v>510</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:C10" si="1">+A11/A10</f>
+        <v>1.0450980392156863</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.992752271295263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>533</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:C11" si="2">+A12/A11</f>
+        <v>1.0375234521575984</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.99346324012700749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>553</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="3">+A13/A12</f>
+        <v>1.030741410488246</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>0.9940043090181595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>570</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:C13" si="4">+A14/A13</f>
+        <v>1.024561403508772</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0.99608275473822483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>584</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:C14" si="5">+A15/A14</f>
+        <v>1.0205479452054795</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="5"/>
+        <v>0.9963064726814107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>596</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:C15" si="6">+A16/A15</f>
+        <v>1.0167785234899329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -430,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
